--- a/examples/sources/data/unsolved/to_schedule/2018-12-10.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="130">
   <si>
     <t>Id</t>
   </si>
@@ -37,6 +37,27 @@
     <t>Fiscal</t>
   </si>
   <si>
+    <t>Querellante</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>Riesgosa</t>
+  </si>
+  <si>
+    <t>Detenido</t>
+  </si>
+  <si>
+    <t>A la Tarde</t>
+  </si>
+  <si>
+    <t>Boulogne</t>
+  </si>
+  <si>
+    <t>Alma Fuerte</t>
+  </si>
+  <si>
     <t>Fecha de Pedido</t>
   </si>
   <si>
@@ -145,6 +166,9 @@
     <t>Velez Claudia (querellante)</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - MIRIAM LEDDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - Dr. Asencio, Osvaldo</t>
   </si>
   <si>
@@ -157,6 +181,12 @@
     <t xml:space="preserve">  Defensor Particular - Dra. AGUILERA - </t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - Dra. Susana AGUILERA - </t>
+  </si>
+  <si>
+    <t>Forgione Lopez Federico (22da. flagr.)</t>
+  </si>
+  <si>
     <t>Sanchez Cristina (18va)</t>
   </si>
   <si>
@@ -166,9 +196,21 @@
     <t>Calabró Florencia (codef. 22da.)</t>
   </si>
   <si>
+    <t>Lucero Martín (codef. 15va.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - Raúl Sánchez</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - Antonio Carrizo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Defensor Particular - RAÚL SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>Uldfelt Ellen (codef. menores)</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - PABLO LIVIO CAZABAN</t>
   </si>
   <si>
@@ -187,9 +229,15 @@
     <t xml:space="preserve">  Defensor Particular - Simon Kozusnikj</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - KOZUSNIK SIMON</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - Federico Zeid</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - Erica Aguilera</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - Diego Martín Sierra </t>
   </si>
   <si>
@@ -199,7 +247,7 @@
     <t xml:space="preserve">  Defensor Particular - Oscar Barrera</t>
   </si>
   <si>
-    <t xml:space="preserve">  Defensor Particular - Dra. Susana AGUILERA - </t>
+    <t>Flamant Diego(codef. 2da)</t>
   </si>
   <si>
     <t xml:space="preserve">  Defensor Particular - Carlos Moyano</t>
@@ -220,7 +268,7 @@
     <t>Querellante particular</t>
   </si>
   <si>
-    <t>Flamant Diego(codef. 2da)</t>
+    <t xml:space="preserve">  Defensor Particular - Ricardo Córica</t>
   </si>
   <si>
     <t>García María Laura (15ta)</t>
@@ -229,9 +277,6 @@
     <t xml:space="preserve">  Defensor Particular - DR. GABRIEL ALLIANA</t>
   </si>
   <si>
-    <t>Lucero Martín (codef. 15va.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Defensor Particular - Pedro Luquez</t>
   </si>
   <si>
@@ -241,6 +286,9 @@
     <t xml:space="preserve"> S/defensor</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - DAVID GUZMAN </t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - ]Dr. Carlos Javier Moyano</t>
   </si>
   <si>
@@ -256,6 +304,9 @@
     <t>Fausti Franco (codef. 13ra.)</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - diego Rossi</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - Diego Pablo Enriquez Guevara</t>
   </si>
   <si>
@@ -271,13 +322,31 @@
     <t>Tallei Inés (codef.23ra.)</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - SEBASTIAN BALMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Defensor Particular - JUAN FERNANDO ARMAGNAGUE</t>
+  </si>
+  <si>
     <t>Hidalgo María (def. Malargüe)</t>
   </si>
   <si>
+    <t>Pedrazzoli Cecilia (9na)</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - Gabriel Da Silva</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - Kozusnik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Defensor Particular - DR. DA SILVA</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - DIEGO SIERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Defensor Particular - JUAN CARLOS RUIZ</t>
   </si>
   <si>
     <t xml:space="preserve">  Defensor Particular - Federico Giaquinta</t>
@@ -696,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:R135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,13 +805,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>98390</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>827</v>
@@ -754,30 +844,45 @@
         <v>795</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>824</v>
       </c>
-      <c r="H2" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P2">
         <v>502</v>
       </c>
-      <c r="J2" s="2">
+      <c r="Q2" s="2">
         <v>43507</v>
       </c>
-      <c r="K2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="R2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>98391</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>823</v>
@@ -789,30 +894,45 @@
         <v>663</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>1317</v>
       </c>
-      <c r="H3" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P3">
         <v>457</v>
       </c>
-      <c r="J3" s="2">
+      <c r="Q3" s="2">
         <v>43503</v>
       </c>
-      <c r="K3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="R3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>98392</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>823</v>
@@ -824,30 +944,45 @@
         <v>663</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>647</v>
       </c>
-      <c r="H4" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P4">
         <v>457</v>
       </c>
-      <c r="J4" s="2">
+      <c r="Q4" s="2">
         <v>43564</v>
       </c>
-      <c r="K4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="R4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>98393</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>823</v>
@@ -859,21 +994,36 @@
         <v>362</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>381</v>
       </c>
-      <c r="H5" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>98394</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>848</v>
@@ -885,21 +1035,36 @@
         <v>690</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>1566</v>
       </c>
-      <c r="H6" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>98395</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>823</v>
@@ -911,21 +1076,36 @@
         <v>360</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>381</v>
       </c>
-      <c r="H7" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>98396</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>823</v>
@@ -937,21 +1117,36 @@
         <v>1079</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>874</v>
       </c>
-      <c r="H8" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>98397</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>842</v>
@@ -963,30 +1158,45 @@
         <v>323</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>1098</v>
       </c>
-      <c r="H9" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I9">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P9">
         <v>454</v>
       </c>
-      <c r="J9" s="2">
+      <c r="Q9" s="2">
         <v>43503</v>
       </c>
-      <c r="K9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="R9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>98398</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>823</v>
@@ -998,21 +1208,36 @@
         <v>394</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>387</v>
       </c>
-      <c r="H10" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>98399</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>377</v>
@@ -1024,21 +1249,36 @@
         <v>398</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>485</v>
       </c>
-      <c r="H11" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>98400</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>862</v>
@@ -1050,30 +1290,45 @@
         <v>323</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
-      <c r="H12" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P12">
         <v>458</v>
       </c>
-      <c r="J12" s="2">
+      <c r="Q12" s="2">
         <v>43447</v>
       </c>
-      <c r="K12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="R12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>98401</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>842</v>
@@ -1085,21 +1340,36 @@
         <v>394</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>568</v>
       </c>
-      <c r="H13" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>98402</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>818</v>
@@ -1111,21 +1381,36 @@
         <v>323</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G14">
         <v>705</v>
       </c>
-      <c r="H14" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>98403</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>827</v>
@@ -1137,21 +1422,36 @@
         <v>363</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G15">
         <v>470</v>
       </c>
-      <c r="H15" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>98404</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>823</v>
@@ -1163,30 +1463,45 @@
         <v>795</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>526</v>
       </c>
-      <c r="H16" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I16">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P16">
         <v>498</v>
       </c>
-      <c r="J16" s="2">
+      <c r="Q16" s="2">
         <v>43503</v>
       </c>
-      <c r="K16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="R16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>98405</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>371</v>
@@ -1198,21 +1513,36 @@
         <v>398</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>485</v>
       </c>
-      <c r="H17" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>98406</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>823</v>
@@ -1224,30 +1554,45 @@
         <v>664</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <v>646</v>
       </c>
-      <c r="H18" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I18">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P18">
         <v>456</v>
       </c>
-      <c r="J18" s="2">
+      <c r="Q18" s="2">
         <v>43563</v>
       </c>
-      <c r="K18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="R18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>98407</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>857</v>
@@ -1259,30 +1604,45 @@
         <v>323</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <v>649</v>
       </c>
-      <c r="H19" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I19">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P19">
         <v>452</v>
       </c>
-      <c r="J19" s="2">
+      <c r="Q19" s="2">
         <v>43455</v>
       </c>
-      <c r="K19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="R19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>98408</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>823</v>
@@ -1294,30 +1654,45 @@
         <v>664</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>1317</v>
       </c>
-      <c r="H20" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I20">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P20">
         <v>457</v>
       </c>
-      <c r="J20" s="2">
+      <c r="Q20" s="2">
         <v>43500</v>
       </c>
-      <c r="K20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="R20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>98409</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>823</v>
@@ -1329,21 +1704,36 @@
         <v>399</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G21">
         <v>732</v>
       </c>
-      <c r="H21" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>98410</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>823</v>
@@ -1355,21 +1745,36 @@
         <v>663</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>647</v>
       </c>
-      <c r="H22" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>98411</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>377</v>
@@ -1381,21 +1786,36 @@
         <v>398</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>485</v>
       </c>
-      <c r="H23" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>98412</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>842</v>
@@ -1407,30 +1827,45 @@
         <v>664</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>1317</v>
       </c>
-      <c r="H24" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I24">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P24">
         <v>455</v>
       </c>
-      <c r="J24" s="2">
+      <c r="Q24" s="2">
         <v>43502</v>
       </c>
-      <c r="K24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="R24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>98413</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>842</v>
@@ -1442,30 +1877,45 @@
         <v>664</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>1317</v>
       </c>
-      <c r="H25" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I25">
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P25">
         <v>455</v>
       </c>
-      <c r="J25" s="2">
+      <c r="Q25" s="2">
         <v>43502</v>
       </c>
-      <c r="K25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="R25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>98414</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>823</v>
@@ -1477,2203 +1927,4712 @@
         <v>803</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G26">
         <v>842</v>
       </c>
-      <c r="H26" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I26">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P26">
         <v>498</v>
       </c>
-      <c r="J26" s="2">
+      <c r="Q26" s="2">
         <v>43502</v>
       </c>
-      <c r="K26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="R26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
+        <v>98414</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>823</v>
+      </c>
+      <c r="D27">
+        <v>820</v>
+      </c>
+      <c r="E27">
+        <v>803</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27">
+        <v>842</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P27">
+        <v>498</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>43502</v>
+      </c>
+      <c r="R27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
         <v>98415</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
         <v>817</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>1220</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>396</v>
       </c>
-      <c r="F27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27">
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28">
         <v>335</v>
       </c>
-      <c r="H27" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>98415</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>817</v>
+      </c>
+      <c r="D29">
+        <v>1220</v>
+      </c>
+      <c r="E29">
+        <v>396</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29">
+        <v>335</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
         <v>98416</v>
       </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
         <v>819</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>557</v>
       </c>
-      <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28">
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30">
         <v>358</v>
       </c>
-      <c r="H28" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>98417</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>820</v>
-      </c>
-      <c r="D29">
-        <v>462</v>
-      </c>
-      <c r="E29">
-        <v>323</v>
-      </c>
-      <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29">
-        <v>712</v>
-      </c>
-      <c r="H29" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30">
-        <v>98418</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30">
-        <v>823</v>
-      </c>
-      <c r="D30">
-        <v>352</v>
-      </c>
-      <c r="E30">
-        <v>323</v>
-      </c>
-      <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30">
-        <v>874</v>
-      </c>
-      <c r="H30" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
-        <v>98419</v>
+        <v>98416</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D31">
-        <v>462</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>323</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>379</v>
-      </c>
-      <c r="H31" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>358</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
-        <v>98420</v>
+        <v>98417</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="D32">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="E32">
         <v>323</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G32">
-        <v>453</v>
-      </c>
-      <c r="H32" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>712</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>98421</v>
+        <v>98418</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D33">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E33">
-        <v>397</v>
+        <v>323</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G33">
-        <v>335</v>
-      </c>
-      <c r="H33" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>874</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>98422</v>
+        <v>98419</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>377</v>
+        <v>823</v>
       </c>
       <c r="D34">
-        <v>346</v>
+        <v>462</v>
       </c>
       <c r="E34">
         <v>323</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G34">
-        <v>485</v>
-      </c>
-      <c r="H34" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>379</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>98423</v>
+        <v>98420</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C35">
+        <v>842</v>
+      </c>
+      <c r="D35">
+        <v>434</v>
+      </c>
+      <c r="E35">
+        <v>323</v>
+      </c>
+      <c r="F35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35">
+        <v>453</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>98420</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>842</v>
+      </c>
+      <c r="D36">
+        <v>434</v>
+      </c>
+      <c r="E36">
+        <v>323</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36">
+        <v>453</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>98420</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>842</v>
+      </c>
+      <c r="D37">
+        <v>434</v>
+      </c>
+      <c r="E37">
+        <v>327</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37">
+        <v>453</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>98421</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
         <v>820</v>
-      </c>
-      <c r="D35">
-        <v>462</v>
-      </c>
-      <c r="E35">
-        <v>1096</v>
-      </c>
-      <c r="F35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35">
-        <v>527</v>
-      </c>
-      <c r="H35" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36">
-        <v>98424</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36">
-        <v>371</v>
-      </c>
-      <c r="D36">
-        <v>346</v>
-      </c>
-      <c r="E36">
-        <v>398</v>
-      </c>
-      <c r="F36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36">
-        <v>485</v>
-      </c>
-      <c r="H36" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37">
-        <v>98426</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37">
-        <v>848</v>
-      </c>
-      <c r="D37">
-        <v>445</v>
-      </c>
-      <c r="E37">
-        <v>323</v>
-      </c>
-      <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37">
-        <v>358</v>
-      </c>
-      <c r="H37" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38">
-        <v>98428</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38">
-        <v>816</v>
       </c>
       <c r="D38">
         <v>346</v>
       </c>
       <c r="E38">
-        <v>323</v>
+        <v>397</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G38">
-        <v>700</v>
-      </c>
-      <c r="H38" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>335</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>98429</v>
+        <v>98421</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>379</v>
+        <v>820</v>
       </c>
       <c r="D39">
         <v>346</v>
       </c>
       <c r="E39">
+        <v>397</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39">
+        <v>335</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>98422</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>377</v>
+      </c>
+      <c r="D40">
+        <v>346</v>
+      </c>
+      <c r="E40">
         <v>323</v>
       </c>
-      <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39">
+      <c r="F40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40">
         <v>485</v>
       </c>
-      <c r="H39" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40">
-        <v>98430</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40">
-        <v>827</v>
-      </c>
-      <c r="D40">
-        <v>416</v>
-      </c>
-      <c r="E40">
-        <v>575</v>
-      </c>
-      <c r="F40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40">
-        <v>876</v>
-      </c>
-      <c r="H40" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>98431</v>
+        <v>98423</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>378</v>
+        <v>820</v>
       </c>
       <c r="D41">
-        <v>346</v>
+        <v>462</v>
       </c>
       <c r="E41">
-        <v>323</v>
+        <v>1096</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G41">
-        <v>485</v>
-      </c>
-      <c r="H41" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>527</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>98433</v>
+        <v>98424</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
       <c r="C42">
-        <v>827</v>
+        <v>371</v>
       </c>
       <c r="D42">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E42">
-        <v>1096</v>
+        <v>398</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G42">
-        <v>621</v>
-      </c>
-      <c r="H42" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>485</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>98434</v>
+        <v>98425</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>864</v>
+        <v>821</v>
       </c>
       <c r="D43">
-        <v>820</v>
+        <v>422</v>
       </c>
       <c r="E43">
-        <v>802</v>
+        <v>561</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G43">
-        <v>550</v>
-      </c>
-      <c r="H43" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I43">
-        <v>500</v>
-      </c>
-      <c r="J43" s="2">
-        <v>43448</v>
-      </c>
-      <c r="K43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>335</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>98435</v>
+        <v>98425</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C44">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D44">
-        <v>1221</v>
+        <v>422</v>
       </c>
       <c r="E44">
-        <v>391</v>
+        <v>561</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G44">
-        <v>874</v>
-      </c>
-      <c r="H44" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>335</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>98436</v>
+        <v>98426</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C45">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="D45">
-        <v>1221</v>
+        <v>445</v>
       </c>
       <c r="E45">
         <v>323</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G45">
-        <v>335</v>
-      </c>
-      <c r="H45" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>358</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>98437</v>
+        <v>98426</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D46">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="E46">
         <v>323</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G46">
-        <v>1566</v>
-      </c>
-      <c r="H46" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>358</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>98439</v>
+        <v>98426</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D47">
-        <v>661</v>
+        <v>445</v>
       </c>
       <c r="E47">
         <v>323</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G47">
-        <v>649</v>
-      </c>
-      <c r="H47" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I47">
-        <v>455</v>
-      </c>
-      <c r="J47" s="2">
-        <v>43545</v>
-      </c>
-      <c r="K47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>358</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>98440</v>
+        <v>98426</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C48">
-        <v>827</v>
+        <v>848</v>
       </c>
       <c r="D48">
-        <v>673</v>
+        <v>445</v>
       </c>
       <c r="E48">
-        <v>668</v>
+        <v>572</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G48">
-        <v>1231</v>
-      </c>
-      <c r="H48" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I48">
-        <v>458</v>
-      </c>
-      <c r="J48" s="2">
-        <v>43445</v>
-      </c>
-      <c r="K48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>358</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
-        <v>98441</v>
+        <v>98428</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C49">
-        <v>848</v>
+        <v>816</v>
       </c>
       <c r="D49">
-        <v>811</v>
+        <v>346</v>
       </c>
       <c r="E49">
-        <v>795</v>
+        <v>323</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="G49">
-        <v>836</v>
-      </c>
-      <c r="H49" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I49">
-        <v>497</v>
-      </c>
-      <c r="J49" s="2">
-        <v>43452</v>
-      </c>
-      <c r="K49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>700</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
-        <v>98442</v>
+        <v>98429</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50">
-        <v>842</v>
+        <v>379</v>
       </c>
       <c r="D50">
-        <v>430</v>
+        <v>346</v>
       </c>
       <c r="E50">
         <v>323</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G50">
-        <v>621</v>
-      </c>
-      <c r="H50" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>485</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
-        <v>98443</v>
+        <v>98430</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C51">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="D51">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E51">
-        <v>323</v>
+        <v>575</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G51">
-        <v>453</v>
-      </c>
-      <c r="H51" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>876</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
-        <v>98445</v>
+        <v>98431</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>817</v>
+        <v>378</v>
       </c>
       <c r="D52">
-        <v>422</v>
+        <v>346</v>
       </c>
       <c r="E52">
         <v>323</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G52">
-        <v>450</v>
-      </c>
-      <c r="H52" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>485</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
-        <v>98446</v>
+        <v>98433</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C53">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="D53">
-        <v>819</v>
+        <v>349</v>
       </c>
       <c r="E53">
+        <v>1096</v>
+      </c>
+      <c r="F53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53">
+        <v>621</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54">
+        <v>98434</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>864</v>
+      </c>
+      <c r="D54">
+        <v>820</v>
+      </c>
+      <c r="E54">
         <v>802</v>
       </c>
-      <c r="F53" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53">
-        <v>526</v>
-      </c>
-      <c r="H53" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I53">
-        <v>498</v>
-      </c>
-      <c r="J53" s="2">
-        <v>43509</v>
-      </c>
-      <c r="K53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54">
-        <v>98447</v>
-      </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54">
-        <v>820</v>
-      </c>
-      <c r="D54">
-        <v>336</v>
-      </c>
-      <c r="E54">
+      <c r="F54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54">
+        <v>550</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P54">
+        <v>500</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>43448</v>
+      </c>
+      <c r="R54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55">
+        <v>98435</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>818</v>
+      </c>
+      <c r="D55">
+        <v>1221</v>
+      </c>
+      <c r="E55">
+        <v>391</v>
+      </c>
+      <c r="F55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55">
+        <v>874</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56">
+        <v>98436</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56">
+        <v>816</v>
+      </c>
+      <c r="D56">
+        <v>1221</v>
+      </c>
+      <c r="E56">
         <v>323</v>
       </c>
-      <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54">
-        <v>506</v>
-      </c>
-      <c r="H54" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55">
-        <v>98448</v>
-      </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55">
-        <v>823</v>
-      </c>
-      <c r="D55">
+      <c r="F56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56">
+        <v>335</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57">
+        <v>98436</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57">
         <v>816</v>
       </c>
-      <c r="E55">
-        <v>803</v>
-      </c>
-      <c r="F55" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55">
-        <v>832</v>
-      </c>
-      <c r="H55" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I55">
-        <v>502</v>
-      </c>
-      <c r="J55" s="2">
-        <v>43514</v>
-      </c>
-      <c r="K55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56">
-        <v>98449</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56">
-        <v>823</v>
-      </c>
-      <c r="D56">
-        <v>671</v>
-      </c>
-      <c r="E56">
-        <v>664</v>
-      </c>
-      <c r="F56" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56">
-        <v>1317</v>
-      </c>
-      <c r="H56" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I56">
-        <v>457</v>
-      </c>
-      <c r="J56" s="2">
-        <v>43544</v>
-      </c>
-      <c r="K56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57">
-        <v>98450</v>
-      </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57">
-        <v>823</v>
-      </c>
       <c r="D57">
-        <v>816</v>
+        <v>1221</v>
       </c>
       <c r="E57">
-        <v>804</v>
+        <v>323</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G57">
-        <v>843</v>
-      </c>
-      <c r="H57" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I57">
-        <v>501</v>
-      </c>
-      <c r="J57" s="2">
-        <v>43507</v>
-      </c>
-      <c r="K57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>335</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
-        <v>98451</v>
+        <v>98437</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C58">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="D58">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="E58">
         <v>323</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G58">
-        <v>355</v>
-      </c>
-      <c r="H58" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>1566</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
-        <v>98452</v>
+        <v>98437</v>
       </c>
       <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59">
+        <v>842</v>
+      </c>
+      <c r="D59">
+        <v>430</v>
+      </c>
+      <c r="E59">
+        <v>323</v>
+      </c>
+      <c r="F59" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59">
+        <v>1566</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60">
+        <v>98439</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60">
+        <v>842</v>
+      </c>
+      <c r="D60">
+        <v>661</v>
+      </c>
+      <c r="E60">
+        <v>323</v>
+      </c>
+      <c r="F60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60">
+        <v>649</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P60">
+        <v>455</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>43545</v>
+      </c>
+      <c r="R60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61">
+        <v>98440</v>
+      </c>
+      <c r="B61" t="s">
         <v>18</v>
       </c>
-      <c r="C59">
-        <v>823</v>
-      </c>
-      <c r="D59">
-        <v>422</v>
-      </c>
-      <c r="E59">
-        <v>466</v>
-      </c>
-      <c r="F59" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59">
-        <v>379</v>
-      </c>
-      <c r="H59" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60">
-        <v>98453</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60">
-        <v>815</v>
-      </c>
-      <c r="D60">
-        <v>331</v>
-      </c>
-      <c r="E60">
-        <v>562</v>
-      </c>
-      <c r="F60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60">
-        <v>386</v>
-      </c>
-      <c r="H60" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61">
-        <v>98454</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
       <c r="C61">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="D61">
-        <v>820</v>
+        <v>673</v>
       </c>
       <c r="E61">
-        <v>803</v>
+        <v>668</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G61">
-        <v>832</v>
-      </c>
-      <c r="H61" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I61">
-        <v>502</v>
-      </c>
-      <c r="J61" s="2">
-        <v>43507</v>
-      </c>
-      <c r="K61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>1231</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P61">
+        <v>458</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>43445</v>
+      </c>
+      <c r="R61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
-        <v>98455</v>
+        <v>98441</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>848</v>
       </c>
       <c r="D62">
-        <v>1071</v>
+        <v>811</v>
       </c>
       <c r="E62">
         <v>795</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G62">
-        <v>835</v>
-      </c>
-      <c r="H62" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I62">
-        <v>521</v>
-      </c>
-      <c r="J62" s="2">
-        <v>43453</v>
-      </c>
-      <c r="K62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>836</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P62">
+        <v>497</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>43452</v>
+      </c>
+      <c r="R62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
-        <v>98456</v>
+        <v>98442</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C63">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="D63">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="E63">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G63">
-        <v>874</v>
-      </c>
-      <c r="H63" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>621</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
-        <v>98457</v>
+        <v>98443</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C64">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="D64">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="E64">
-        <v>553</v>
+        <v>323</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G64">
         <v>453</v>
       </c>
-      <c r="H64" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
-        <v>98458</v>
+        <v>98443</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C65">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="D65">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="E65">
-        <v>1096</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G65">
-        <v>697</v>
-      </c>
-      <c r="H65" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>453</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
-        <v>98459</v>
+        <v>98443</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66">
         <v>842</v>
       </c>
       <c r="D66">
-        <v>811</v>
+        <v>434</v>
       </c>
       <c r="E66">
+        <v>401</v>
+      </c>
+      <c r="F66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66">
+        <v>453</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67">
+        <v>98445</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>817</v>
+      </c>
+      <c r="D67">
+        <v>422</v>
+      </c>
+      <c r="E67">
         <v>323</v>
       </c>
-      <c r="F66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66">
-        <v>824</v>
-      </c>
-      <c r="H66" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I66">
-        <v>498</v>
-      </c>
-      <c r="J66" s="2">
-        <v>43452</v>
-      </c>
-      <c r="K66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67">
-        <v>98460</v>
-      </c>
-      <c r="B67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67">
-        <v>848</v>
-      </c>
-      <c r="D67">
-        <v>439</v>
-      </c>
-      <c r="E67">
-        <v>561</v>
-      </c>
       <c r="F67" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G67">
         <v>450</v>
       </c>
-      <c r="H67" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
-        <v>98461</v>
+        <v>98446</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C68">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D68">
-        <v>351</v>
+        <v>819</v>
       </c>
       <c r="E68">
-        <v>323</v>
+        <v>802</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G68">
-        <v>379</v>
-      </c>
-      <c r="H68" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>526</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P68">
+        <v>498</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>43509</v>
+      </c>
+      <c r="R68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
-        <v>98462</v>
+        <v>98447</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C69">
         <v>820</v>
       </c>
       <c r="D69">
-        <v>1220</v>
+        <v>336</v>
       </c>
       <c r="E69">
-        <v>1078</v>
+        <v>323</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G69">
-        <v>1086</v>
-      </c>
-      <c r="H69" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>506</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70">
-        <v>98463</v>
+        <v>98448</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <v>823</v>
       </c>
       <c r="D70">
-        <v>656</v>
+        <v>816</v>
       </c>
       <c r="E70">
-        <v>571</v>
+        <v>803</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G70">
-        <v>1098</v>
-      </c>
-      <c r="H70" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I70">
-        <v>451</v>
-      </c>
-      <c r="J70" s="2">
-        <v>43445</v>
-      </c>
-      <c r="K70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>832</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P70">
+        <v>502</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>43514</v>
+      </c>
+      <c r="R70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71">
-        <v>98464</v>
+        <v>98449</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C71">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="D71">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="E71">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G71">
-        <v>643</v>
-      </c>
-      <c r="H71" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>1317</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P71">
+        <v>457</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>43544</v>
+      </c>
+      <c r="R71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72">
-        <v>98465</v>
+        <v>98450</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C72">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="D72">
-        <v>324</v>
+        <v>816</v>
       </c>
       <c r="E72">
-        <v>323</v>
+        <v>804</v>
       </c>
       <c r="F72" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G72">
-        <v>872</v>
-      </c>
-      <c r="H72" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>843</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P72">
+        <v>501</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>43507</v>
+      </c>
+      <c r="R72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73">
-        <v>98466</v>
+        <v>98451</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C73">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D73">
-        <v>349</v>
+        <v>463</v>
       </c>
       <c r="E73">
         <v>323</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G73">
-        <v>383</v>
-      </c>
-      <c r="H73" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>355</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74">
-        <v>98467</v>
+        <v>98452</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C74">
         <v>823</v>
       </c>
       <c r="D74">
-        <v>654</v>
+        <v>422</v>
       </c>
       <c r="E74">
-        <v>665</v>
+        <v>466</v>
       </c>
       <c r="F74" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G74">
-        <v>647</v>
-      </c>
-      <c r="H74" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>379</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75">
-        <v>98468</v>
+        <v>98453</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C75">
+        <v>815</v>
+      </c>
+      <c r="D75">
+        <v>331</v>
+      </c>
+      <c r="E75">
+        <v>562</v>
+      </c>
+      <c r="F75" t="s">
+        <v>83</v>
+      </c>
+      <c r="G75">
+        <v>386</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76">
+        <v>98453</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>815</v>
+      </c>
+      <c r="D76">
+        <v>331</v>
+      </c>
+      <c r="E76">
+        <v>323</v>
+      </c>
+      <c r="F76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76">
+        <v>386</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77">
+        <v>98454</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
         <v>823</v>
       </c>
-      <c r="D75">
-        <v>817</v>
-      </c>
-      <c r="E75">
-        <v>804</v>
-      </c>
-      <c r="F75" t="s">
-        <v>64</v>
-      </c>
-      <c r="G75">
+      <c r="D77">
+        <v>820</v>
+      </c>
+      <c r="E77">
+        <v>803</v>
+      </c>
+      <c r="F77" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77">
         <v>832</v>
       </c>
-      <c r="H75" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I75">
-        <v>498</v>
-      </c>
-      <c r="J75" s="2">
-        <v>43503</v>
-      </c>
-      <c r="K75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76">
-        <v>98469</v>
-      </c>
-      <c r="B76" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76">
-        <v>827</v>
-      </c>
-      <c r="D76">
-        <v>348</v>
-      </c>
-      <c r="E76">
-        <v>399</v>
-      </c>
-      <c r="F76" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76">
-        <v>379</v>
-      </c>
-      <c r="H76" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77">
-        <v>98470</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77">
-        <v>379</v>
-      </c>
-      <c r="D77">
-        <v>352</v>
-      </c>
-      <c r="E77">
-        <v>398</v>
-      </c>
-      <c r="F77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77">
-        <v>485</v>
-      </c>
-      <c r="H77" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P77">
+        <v>502</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>43507</v>
+      </c>
+      <c r="R77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78">
-        <v>98471</v>
+        <v>98455</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C78">
-        <v>823</v>
+        <v>848</v>
       </c>
       <c r="D78">
-        <v>463</v>
+        <v>1071</v>
       </c>
       <c r="E78">
-        <v>412</v>
+        <v>795</v>
       </c>
       <c r="F78" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G78">
-        <v>387</v>
-      </c>
-      <c r="H78" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>835</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P78">
+        <v>521</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>43453</v>
+      </c>
+      <c r="R78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79">
-        <v>98472</v>
+        <v>98456</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C79">
         <v>823</v>
       </c>
       <c r="D79">
-        <v>462</v>
+        <v>353</v>
       </c>
       <c r="E79">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G79">
-        <v>379</v>
-      </c>
-      <c r="H79" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>874</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80">
-        <v>98473</v>
+        <v>98457</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D80">
-        <v>655</v>
+        <v>346</v>
       </c>
       <c r="E80">
-        <v>663</v>
+        <v>553</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="G80">
-        <v>646</v>
-      </c>
-      <c r="H80" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I80">
-        <v>456</v>
-      </c>
-      <c r="J80" s="2">
-        <v>43446</v>
-      </c>
-      <c r="K80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>453</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
-        <v>98474</v>
+        <v>98458</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C81">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D81">
-        <v>654</v>
+        <v>349</v>
       </c>
       <c r="E81">
-        <v>664</v>
+        <v>1096</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G81">
-        <v>1317</v>
-      </c>
-      <c r="H81" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I81">
-        <v>456</v>
-      </c>
-      <c r="J81" s="2">
-        <v>43504</v>
-      </c>
-      <c r="K81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>697</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
-        <v>98476</v>
+        <v>98458</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>820</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>349</v>
       </c>
       <c r="E82">
-        <v>557</v>
+        <v>1096</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G82">
-        <v>705</v>
-      </c>
-      <c r="H82" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>697</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83">
-        <v>98477</v>
+        <v>98459</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C83">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="D83">
-        <v>671</v>
+        <v>811</v>
       </c>
       <c r="E83">
-        <v>664</v>
+        <v>323</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="G83">
-        <v>645</v>
-      </c>
-      <c r="H83" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I83">
-        <v>456</v>
-      </c>
-      <c r="J83" s="2">
-        <v>43451</v>
-      </c>
-      <c r="K83" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>824</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P83">
+        <v>498</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>43452</v>
+      </c>
+      <c r="R83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84">
-        <v>98478</v>
+        <v>98460</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="D84">
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="E84">
-        <v>323</v>
+        <v>561</v>
       </c>
       <c r="F84" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G84">
-        <v>335</v>
-      </c>
-      <c r="H84" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>450</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85">
-        <v>98479</v>
+        <v>98461</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C85">
         <v>827</v>
       </c>
       <c r="D85">
-        <v>672</v>
+        <v>351</v>
       </c>
       <c r="E85">
         <v>323</v>
       </c>
       <c r="F85" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G85">
-        <v>1317</v>
-      </c>
-      <c r="H85" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>379</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86">
-        <v>98480</v>
+        <v>98462</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C86">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="D86">
-        <v>437</v>
+        <v>1220</v>
       </c>
       <c r="E86">
-        <v>394</v>
+        <v>1078</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="G86">
-        <v>1072</v>
-      </c>
-      <c r="H86" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>1086</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87">
-        <v>98481</v>
+        <v>98463</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>863</v>
+        <v>823</v>
       </c>
       <c r="D87">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E87">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G87">
-        <v>649</v>
-      </c>
-      <c r="H87" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I87">
-        <v>452</v>
-      </c>
-      <c r="J87" s="2">
-        <v>43453</v>
-      </c>
-      <c r="K87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>1098</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P87">
+        <v>451</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>43445</v>
+      </c>
+      <c r="R87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88">
-        <v>98482</v>
+        <v>98463</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C88">
         <v>823</v>
       </c>
       <c r="D88">
-        <v>336</v>
+        <v>656</v>
       </c>
       <c r="E88">
-        <v>407</v>
+        <v>323</v>
       </c>
       <c r="F88" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G88">
-        <v>387</v>
-      </c>
-      <c r="H88" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>1098</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P88">
+        <v>451</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>43445</v>
+      </c>
+      <c r="R88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89">
-        <v>98483</v>
+        <v>98464</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C89">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="D89">
-        <v>346</v>
+        <v>654</v>
       </c>
       <c r="E89">
-        <v>323</v>
+        <v>663</v>
       </c>
       <c r="F89" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="G89">
-        <v>530</v>
-      </c>
-      <c r="H89" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>643</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90">
-        <v>98484</v>
+        <v>98465</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C90">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D90">
         <v>324</v>
       </c>
       <c r="E90">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="F90" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G90">
-        <v>386</v>
-      </c>
-      <c r="H90" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>872</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91">
-        <v>98485</v>
+        <v>98466</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C91">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D91">
-        <v>1221</v>
+        <v>349</v>
       </c>
       <c r="E91">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="F91" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G91">
-        <v>1088</v>
-      </c>
-      <c r="H91" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>383</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92">
-        <v>98486</v>
+        <v>98466</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C92">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D92">
-        <v>462</v>
+        <v>349</v>
       </c>
       <c r="E92">
-        <v>1078</v>
+        <v>575</v>
       </c>
       <c r="F92" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G92">
         <v>383</v>
       </c>
-      <c r="H92" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93">
-        <v>98487</v>
+        <v>98467</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C93">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D93">
-        <v>416</v>
+        <v>654</v>
       </c>
       <c r="E93">
-        <v>561</v>
+        <v>665</v>
       </c>
       <c r="F93" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G93">
-        <v>700</v>
-      </c>
-      <c r="H93" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>647</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94">
-        <v>98488</v>
+        <v>98468</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C94">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D94">
-        <v>656</v>
+        <v>817</v>
       </c>
       <c r="E94">
-        <v>1144</v>
+        <v>804</v>
       </c>
       <c r="F94" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G94">
-        <v>1098</v>
-      </c>
-      <c r="H94" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I94">
-        <v>451</v>
-      </c>
-      <c r="J94" s="2">
-        <v>43447</v>
-      </c>
-      <c r="K94" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>832</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P94">
+        <v>498</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>43503</v>
+      </c>
+      <c r="R94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95">
-        <v>98489</v>
+        <v>98469</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C95">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="D95">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="E95">
-        <v>575</v>
+        <v>399</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G95">
-        <v>698</v>
-      </c>
-      <c r="H95" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>379</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96">
-        <v>98490</v>
+        <v>98470</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C96">
-        <v>816</v>
+        <v>379</v>
       </c>
       <c r="D96">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="E96">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G96">
-        <v>335</v>
-      </c>
-      <c r="H96" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>485</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97">
-        <v>98492</v>
+        <v>98471</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C97">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="D97">
-        <v>349</v>
+        <v>463</v>
       </c>
       <c r="E97">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="G97">
-        <v>705</v>
-      </c>
-      <c r="H97" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>387</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98">
-        <v>98493</v>
+        <v>98472</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C98">
         <v>823</v>
       </c>
       <c r="D98">
-        <v>351</v>
+        <v>462</v>
       </c>
       <c r="E98">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="F98" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G98">
         <v>379</v>
       </c>
-      <c r="H98" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99">
-        <v>98494</v>
+        <v>98473</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C99">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="D99">
-        <v>444</v>
+        <v>655</v>
       </c>
       <c r="E99">
-        <v>323</v>
+        <v>663</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="G99">
-        <v>358</v>
-      </c>
-      <c r="H99" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>646</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P99">
+        <v>456</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>43446</v>
+      </c>
+      <c r="R99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100">
-        <v>98496</v>
+        <v>98474</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C100">
         <v>823</v>
       </c>
       <c r="D100">
+        <v>654</v>
+      </c>
+      <c r="E100">
+        <v>664</v>
+      </c>
+      <c r="F100" t="s">
+        <v>44</v>
+      </c>
+      <c r="G100">
+        <v>1317</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P100">
+        <v>456</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>43504</v>
+      </c>
+      <c r="R100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101">
+        <v>98476</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>820</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>557</v>
+      </c>
+      <c r="F101" t="s">
+        <v>49</v>
+      </c>
+      <c r="G101">
+        <v>705</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102">
+        <v>98476</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102">
+        <v>820</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>323</v>
+      </c>
+      <c r="F102" t="s">
+        <v>96</v>
+      </c>
+      <c r="G102">
+        <v>705</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103">
+        <v>98477</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103">
+        <v>823</v>
+      </c>
+      <c r="D103">
         <v>671</v>
       </c>
-      <c r="E100">
+      <c r="E103">
+        <v>664</v>
+      </c>
+      <c r="F103" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103">
+        <v>645</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P103">
+        <v>456</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>43451</v>
+      </c>
+      <c r="R103" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104">
+        <v>98478</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104">
+        <v>816</v>
+      </c>
+      <c r="D104">
+        <v>349</v>
+      </c>
+      <c r="E104">
         <v>323</v>
       </c>
-      <c r="F100" t="s">
-        <v>87</v>
-      </c>
-      <c r="G100">
+      <c r="F104" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104">
+        <v>335</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105">
+        <v>98479</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105">
+        <v>827</v>
+      </c>
+      <c r="D105">
+        <v>672</v>
+      </c>
+      <c r="E105">
+        <v>323</v>
+      </c>
+      <c r="F105" t="s">
+        <v>98</v>
+      </c>
+      <c r="G105">
+        <v>1317</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106">
+        <v>98480</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <v>848</v>
+      </c>
+      <c r="D106">
+        <v>437</v>
+      </c>
+      <c r="E106">
+        <v>394</v>
+      </c>
+      <c r="F106" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106">
+        <v>1072</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107">
+        <v>98481</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107">
+        <v>863</v>
+      </c>
+      <c r="D107">
+        <v>654</v>
+      </c>
+      <c r="E107">
+        <v>667</v>
+      </c>
+      <c r="F107" t="s">
+        <v>99</v>
+      </c>
+      <c r="G107">
+        <v>649</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P107">
+        <v>452</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>43453</v>
+      </c>
+      <c r="R107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108">
+        <v>98482</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108">
+        <v>823</v>
+      </c>
+      <c r="D108">
+        <v>336</v>
+      </c>
+      <c r="E108">
+        <v>407</v>
+      </c>
+      <c r="F108" t="s">
+        <v>95</v>
+      </c>
+      <c r="G108">
+        <v>387</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109">
+        <v>98483</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>823</v>
+      </c>
+      <c r="D109">
+        <v>346</v>
+      </c>
+      <c r="E109">
+        <v>323</v>
+      </c>
+      <c r="F109" t="s">
+        <v>100</v>
+      </c>
+      <c r="G109">
+        <v>530</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110">
+        <v>98484</v>
+      </c>
+      <c r="B110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110">
+        <v>814</v>
+      </c>
+      <c r="D110">
+        <v>324</v>
+      </c>
+      <c r="E110">
+        <v>368</v>
+      </c>
+      <c r="F110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G110">
+        <v>386</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111">
+        <v>98484</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>814</v>
+      </c>
+      <c r="D111">
+        <v>324</v>
+      </c>
+      <c r="E111">
+        <v>323</v>
+      </c>
+      <c r="F111" t="s">
+        <v>102</v>
+      </c>
+      <c r="G111">
+        <v>386</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112">
+        <v>98485</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112">
+        <v>817</v>
+      </c>
+      <c r="D112">
+        <v>1221</v>
+      </c>
+      <c r="E112">
+        <v>401</v>
+      </c>
+      <c r="F112" t="s">
+        <v>77</v>
+      </c>
+      <c r="G112">
+        <v>1088</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113">
+        <v>98486</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113">
+        <v>820</v>
+      </c>
+      <c r="D113">
+        <v>462</v>
+      </c>
+      <c r="E113">
+        <v>1078</v>
+      </c>
+      <c r="F113" t="s">
+        <v>88</v>
+      </c>
+      <c r="G113">
+        <v>383</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114">
+        <v>98487</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114">
+        <v>820</v>
+      </c>
+      <c r="D114">
+        <v>416</v>
+      </c>
+      <c r="E114">
+        <v>561</v>
+      </c>
+      <c r="F114" t="s">
+        <v>60</v>
+      </c>
+      <c r="G114">
+        <v>700</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115">
+        <v>98487</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115">
+        <v>820</v>
+      </c>
+      <c r="D115">
+        <v>416</v>
+      </c>
+      <c r="E115">
+        <v>561</v>
+      </c>
+      <c r="F115" t="s">
+        <v>60</v>
+      </c>
+      <c r="G115">
+        <v>700</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116">
+        <v>98487</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <v>820</v>
+      </c>
+      <c r="D116">
+        <v>416</v>
+      </c>
+      <c r="E116">
+        <v>561</v>
+      </c>
+      <c r="F116" t="s">
+        <v>60</v>
+      </c>
+      <c r="G116">
+        <v>700</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117">
+        <v>98487</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117">
+        <v>820</v>
+      </c>
+      <c r="D117">
+        <v>416</v>
+      </c>
+      <c r="E117">
+        <v>323</v>
+      </c>
+      <c r="F117" t="s">
+        <v>103</v>
+      </c>
+      <c r="G117">
+        <v>700</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118">
+        <v>98488</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118">
+        <v>824</v>
+      </c>
+      <c r="D118">
+        <v>656</v>
+      </c>
+      <c r="E118">
+        <v>1144</v>
+      </c>
+      <c r="F118" t="s">
+        <v>104</v>
+      </c>
+      <c r="G118">
+        <v>1098</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P118">
+        <v>451</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>43447</v>
+      </c>
+      <c r="R118" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119">
+        <v>98488</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119">
+        <v>824</v>
+      </c>
+      <c r="D119">
+        <v>656</v>
+      </c>
+      <c r="E119">
+        <v>571</v>
+      </c>
+      <c r="F119" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119">
+        <v>1098</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P119">
+        <v>451</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>43447</v>
+      </c>
+      <c r="R119" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120">
+        <v>98489</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120">
+        <v>848</v>
+      </c>
+      <c r="D120">
+        <v>438</v>
+      </c>
+      <c r="E120">
+        <v>575</v>
+      </c>
+      <c r="F120" t="s">
+        <v>67</v>
+      </c>
+      <c r="G120">
+        <v>698</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121">
+        <v>98489</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>848</v>
+      </c>
+      <c r="D121">
+        <v>438</v>
+      </c>
+      <c r="E121">
+        <v>393</v>
+      </c>
+      <c r="F121" t="s">
+        <v>105</v>
+      </c>
+      <c r="G121">
+        <v>698</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122">
+        <v>98490</v>
+      </c>
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>816</v>
+      </c>
+      <c r="D122">
+        <v>324</v>
+      </c>
+      <c r="E122">
+        <v>396</v>
+      </c>
+      <c r="F122" t="s">
+        <v>48</v>
+      </c>
+      <c r="G122">
+        <v>335</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123">
+        <v>98492</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123">
+        <v>817</v>
+      </c>
+      <c r="D123">
+        <v>349</v>
+      </c>
+      <c r="E123">
+        <v>396</v>
+      </c>
+      <c r="F123" t="s">
+        <v>48</v>
+      </c>
+      <c r="G123">
+        <v>705</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124">
+        <v>98493</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124">
+        <v>823</v>
+      </c>
+      <c r="D124">
+        <v>351</v>
+      </c>
+      <c r="E124">
+        <v>391</v>
+      </c>
+      <c r="F124" t="s">
+        <v>69</v>
+      </c>
+      <c r="G124">
+        <v>379</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125">
+        <v>98494</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125">
+        <v>848</v>
+      </c>
+      <c r="D125">
+        <v>444</v>
+      </c>
+      <c r="E125">
+        <v>323</v>
+      </c>
+      <c r="F125" t="s">
+        <v>106</v>
+      </c>
+      <c r="G125">
+        <v>358</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126">
+        <v>98494</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126">
+        <v>848</v>
+      </c>
+      <c r="D126">
+        <v>444</v>
+      </c>
+      <c r="E126">
+        <v>323</v>
+      </c>
+      <c r="F126" t="s">
+        <v>107</v>
+      </c>
+      <c r="G126">
+        <v>358</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127">
+        <v>98494</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>848</v>
+      </c>
+      <c r="D127">
+        <v>444</v>
+      </c>
+      <c r="E127">
+        <v>562</v>
+      </c>
+      <c r="F127" t="s">
+        <v>83</v>
+      </c>
+      <c r="G127">
+        <v>358</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128">
+        <v>98494</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>848</v>
+      </c>
+      <c r="D128">
+        <v>444</v>
+      </c>
+      <c r="E128">
+        <v>323</v>
+      </c>
+      <c r="F128" t="s">
+        <v>108</v>
+      </c>
+      <c r="G128">
+        <v>358</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129">
+        <v>98496</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129">
+        <v>823</v>
+      </c>
+      <c r="D129">
+        <v>671</v>
+      </c>
+      <c r="E129">
+        <v>323</v>
+      </c>
+      <c r="F129" t="s">
+        <v>109</v>
+      </c>
+      <c r="G129">
         <v>647</v>
       </c>
-      <c r="H100" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I100">
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P129">
         <v>456</v>
       </c>
-      <c r="J100" s="2">
+      <c r="Q129" s="2">
         <v>43508</v>
       </c>
-      <c r="K100" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101">
+      <c r="R129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130">
         <v>98497</v>
       </c>
-      <c r="B101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C101">
+      <c r="B130" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130">
         <v>842</v>
       </c>
-      <c r="D101">
+      <c r="D130">
         <v>813</v>
       </c>
-      <c r="E101">
+      <c r="E130">
         <v>803</v>
       </c>
-      <c r="F101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G101">
+      <c r="F130" t="s">
+        <v>47</v>
+      </c>
+      <c r="G130">
         <v>823</v>
       </c>
-      <c r="H101" s="2">
-        <v>43444</v>
-      </c>
-      <c r="I101">
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" s="2">
+        <v>43444</v>
+      </c>
+      <c r="P130">
         <v>499</v>
       </c>
-      <c r="J101" s="2">
+      <c r="Q130" s="2">
         <v>43454</v>
       </c>
-      <c r="K101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102">
+      <c r="R130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131">
         <v>98498</v>
       </c>
-      <c r="B102" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102">
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131">
         <v>837</v>
       </c>
-      <c r="D102">
+      <c r="D131">
         <v>461</v>
       </c>
-      <c r="E102">
+      <c r="E131">
         <v>562</v>
       </c>
-      <c r="F102" t="s">
-        <v>67</v>
-      </c>
-      <c r="G102">
+      <c r="F131" t="s">
+        <v>83</v>
+      </c>
+      <c r="G131">
         <v>377</v>
       </c>
-      <c r="H102" s="2">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103">
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
+      <c r="A132">
+        <v>98498</v>
+      </c>
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132">
+        <v>837</v>
+      </c>
+      <c r="D132">
+        <v>563</v>
+      </c>
+      <c r="E132">
+        <v>562</v>
+      </c>
+      <c r="F132" t="s">
+        <v>83</v>
+      </c>
+      <c r="G132">
+        <v>377</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
+      <c r="A133">
+        <v>98498</v>
+      </c>
+      <c r="B133" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133">
+        <v>837</v>
+      </c>
+      <c r="D133">
+        <v>461</v>
+      </c>
+      <c r="E133">
+        <v>323</v>
+      </c>
+      <c r="F133" t="s">
+        <v>110</v>
+      </c>
+      <c r="G133">
+        <v>377</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134">
+        <v>98498</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134">
+        <v>837</v>
+      </c>
+      <c r="D134">
+        <v>563</v>
+      </c>
+      <c r="E134">
+        <v>323</v>
+      </c>
+      <c r="F134" t="s">
+        <v>110</v>
+      </c>
+      <c r="G134">
+        <v>377</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" s="2">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135">
         <v>98499</v>
       </c>
-      <c r="B103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103">
+      <c r="B135" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135">
         <v>876</v>
       </c>
-      <c r="D103">
+      <c r="D135">
         <v>445</v>
       </c>
-      <c r="E103">
+      <c r="E135">
         <v>323</v>
       </c>
-      <c r="F103" t="s">
-        <v>88</v>
-      </c>
-      <c r="G103">
+      <c r="F135" t="s">
+        <v>111</v>
+      </c>
+      <c r="G135">
         <v>1208</v>
       </c>
-      <c r="H103" s="2">
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135" s="2">
         <v>43444</v>
       </c>
     </row>

--- a/examples/sources/data/unsolved/to_schedule/2018-12-10.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-10.xlsx
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>43444</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>43444</v>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>43444</v>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
         <v>43444</v>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2">
         <v>43444</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96">
         <v>1</v>
